--- a/接口.xlsx
+++ b/接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,15 +111,23 @@
 {
   "code": 1,
   "data": {
-    "userId": 100000007,
-    "account": "hhss",
+    "userId": 100000008,
+    "account": "hhh",
     "nickname": "henry",
+    "username": "",
     "password": "123456",
     "type": 0,
+    "state": 1,
     "age": 0,
+    "phone": "",
     "sex": 0,
-    "RegistrationTimeMillis": 1479958725402,
-    "LastAccessTimeMillis": 1479958725402
+    "avatarUrl": "",
+    "signature": "",
+    "address": "",
+    "RegistrationTimeMillis": 1479976346634,
+    "LastAccessTimeMillis": 1479976346634,
+    "Reservedfiled1": "",
+    "Reservedfiled2": ""
   }
 }</t>
     </r>
@@ -210,6 +218,227 @@
         <scheme val="minor"/>
       </rPr>
       <t>{"code":4,"data":{"message":"缺少字段或某字段值为空"}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login={"account":"hh","password":123456}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account：账号；
+password：密码；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确返回用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常返回：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+  "code": 1,
+  "data": {
+    "userId": 100000008,
+    "account": "hhh",
+    "nickname": "henry",
+    "username": "",
+    "password": "123456",
+    "type": 0,
+    "state": 1,
+    "age": 0,
+    "phone": "",
+    "sex": 0,
+    "avatarUrl": "",
+    "signature": "",
+    "address": "",
+    "RegistrationTimeMillis": 1479976346634,
+    "LastAccessTimeMillis": 1479976346634,
+    "Reservedfiled1": "",
+    "Reservedfiled2": ""
+  }
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">账号或密码错误：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"code":2,"data":{"message":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号或密码错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.没有该账号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"code":3,"data":{"message":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有该账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.错误参数：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"code":4,"data":{"message":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错误参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +529,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -329,6 +564,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,15 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -666,328 +901,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="350.25" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="391.5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone="13700000000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -442,12 +458,69 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.正常返回：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{"code":1,"data":{"codeMsg":"1234"}}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.错误返回：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{"code":2,"data":{"message":"获取验证码失败"}}}
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确返回验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +608,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -562,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -584,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,7 +973,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -996,21 +1080,35 @@
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="67.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,102 @@
     <t>account：账号（用户唯一）；
 nickname：昵称；
 password：密码；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login={"account":"hh","password":123456}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account：账号；
+password：密码；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确返回用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone="13700000000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.正常返回：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{"code":1,"data":{"codeMsg":"1234"}}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.错误返回：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{"code":2,"data":{"message":"获取验证码失败"}}}
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确返回验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,8 +207,8 @@
 {
   "code": 1,
   "data": {
-    "userId": 100000008,
-    "account": "hhh",
+    "userId": 100000012,
+    "account": "dr",
     "nickname": "henry",
     "username": "",
     "password": "123456",
@@ -124,9 +220,9 @@
     "avatarUrl": "",
     "signature": "",
     "address": "",
-    "RegistrationTimeMillis": 1479976346634,
-    "LastAccessTimeMillis": 1479976346634,
-    "Reservedfiled1": "",
+    "RegistrationTimeMillis": 1480921145777,
+    "LastAccessTimeMillis": 1480921145777,
+    "friendLastChangedTimeMillis": 1480921145777,
     "Reservedfiled2": ""
   }
 }</t>
@@ -219,45 +315,6 @@
       </rPr>
       <t>{"code":4,"data":{"message":"缺少字段或某字段值为空"}}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login={"account":"hh","password":123456}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account：账号；
-password：密码；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确返回用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone="13700000000"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,8 +351,8 @@
 {
   "code": 1,
   "data": {
-    "userId": 100000008,
-    "account": "hhh",
+    "userId": 100000012,
+    "account": "dr",
     "nickname": "henry",
     "username": "",
     "password": "123456",
@@ -307,9 +364,9 @@
     "avatarUrl": "",
     "signature": "",
     "address": "",
-    "RegistrationTimeMillis": 1479976346634,
-    "LastAccessTimeMillis": 1479976346634,
-    "Reservedfiled1": "",
+    "RegistrationTimeMillis": 1480921145777,
+    "LastAccessTimeMillis": 1480921145777,
+    "friendLastChangedTimeMillis": 1480921145777,
     "Reservedfiled2": ""
   }
 }</t>
@@ -462,13 +519,14 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5"/>
+        <color rgb="FFC00000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.正常返回：</t>
+      <t xml:space="preserve">1.正常返回：
+</t>
     </r>
     <r>
       <rPr>
@@ -478,8 +536,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-{"code":1,"data":{"codeMsg":"1234"}}
+      <t xml:space="preserve">{
+  "code": 1,
+  "datas": [
+    {
+      "userUid": 100001,
+      "friendUid": 100000010,
+      "beFriendTimeMillis": 0,
+      "splitTimeMillis": 0,
+      "lable": "",
+      "remarkName": "",
+      "intimacy": 0,
+      "friendInfo": {
+        "userId": 100000010,
+        "account": "hhhs",
+        "nickname": "henry",
+        "username": "",
+        "password": "123456",
+        "type": 0,
+        "state": 1,
+        "age": 0,
+        "phone": "",
+        "sex": 0,
+        "avatarUrl": "",
+        "signature": "",
+        "address": "",
+        "RegistrationTimeMillis": 1479978073096,
+        "LastAccessTimeMillis": 1479978073096,
+        "friendLastChangedTimeMillis": 9,
+        "Reservedfiled2": ""
+      }
+    },
+    {
+      "userUid": 100001,
+      "friendUid": 100000010,
+      "beFriendTimeMillis": 0,
+      "splitTimeMillis": 0,
+      "lable": "",
+      "remarkName": "",
+      "intimacy": 0,
+      "friendInfo": {
+        "userId": 100000010,
+        "account": "hhhs",
+        "nickname": "henry",
+        "username": "",
+        "password": "123456",
+        "type": 0,
+        "state": 1,
+        "age": 0,
+        "phone": "",
+        "sex": 0,
+        "avatarUrl": "",
+        "signature": "",
+        "address": "",
+        "RegistrationTimeMillis": 1479978073096,
+        "LastAccessTimeMillis": 1479978073096,
+        "friendLastChangedTimeMillis": 9,
+        "Reservedfiled2": ""
+      }
+    }
+  ]
+}
 </t>
     </r>
     <r>
@@ -491,7 +608,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2.错误返回：</t>
+      <t>2.异常返回：</t>
     </r>
     <r>
       <rPr>
@@ -502,18 +619,24 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-{"code":2,"data":{"message":"获取验证码失败"}}}
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确返回验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+{"code":1,"datas":[]}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取好友列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendlist</t>
   </si>
 </sst>
 </file>
@@ -654,6 +777,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -985,28 +1108,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -1034,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="350.25" customHeight="1">
+    <row r="4" spans="1:8" ht="99.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1054,74 +1177,92 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="391.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="183.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="67.5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="196.5" customHeight="1">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1131,7 +1272,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1141,7 +1284,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -65,9 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>register</t>
-  </si>
-  <si>
     <t>register={"account":"hhss","nickname":"henry","password":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,9 +77,6 @@
   <si>
     <t>login={"account":"hh","password":123456}</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
   </si>
   <si>
     <t>Login</t>
@@ -637,6 +631,14 @@
   </si>
   <si>
     <t>friendlist</t>
+  </si>
+  <si>
+    <t>registerMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1096,7 +1098,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1168,19 +1170,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="183.75" customHeight="1">
@@ -1188,25 +1190,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5">
@@ -1214,25 +1216,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="196.5" customHeight="1">
@@ -1240,22 +1242,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1"/>
     </row>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IMU接口" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="websocket消息结构" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,6 +638,154 @@
   </si>
   <si>
     <t>loginMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU项目WebSocket消息接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试地址：ws://localhost:8080/imu/message?userId=10001(10001为用户的userId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天消息确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"fromUserId":100002,"messageType":0,"state":0,"toUserId":100001,"SendTimeMillis":1482469800959,"content":"sdf","type":"chat","uid":1482469800959}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:消息类型
+content:消息具体内容（如果不是文字消息，则content为对应的url）
+SendTimeMillis：发送时间
+fromUserId：发送者id
+toUserId：接收者id
+messageType：聊天消息类型（0.文字消息；1.图片消息；2.语音消息；3.小视频；4.文件；11.文字阅后即焚；12.图片阅后即焚；13.语音阅后即焚；14.视频阅后即焚）
+state：发送状态（成功）
+uid：消息UID，用于识别消息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"chat_back","content":"","uid":1482469800959,"SendTimeMillis":1482472432158}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友上线提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友下线提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlineReminder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlineReminder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type:消息类型
+content:消息内容
+SendTimeMillis：对应的时间点
+uid：消息UID，用于识别消息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uid：对应发送的消息uid
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addfriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content：确认信息（agree：表示同意，disagree：表示不同意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addfriend_conform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送/接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送/接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content：好友Account（账号）/申请人账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示申请发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addfriend_back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,6 +941,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1500,14 +1660,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="40.125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="35.25">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="165" customHeight="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="94.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,6 +786,38 @@
   </si>
   <si>
     <t>addfriend_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletefriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content：好友Account（账号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletefriend_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示删除成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,6 +961,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,16 +984,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,28 +1305,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -1662,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1676,24 +1711,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -1734,7 +1769,7 @@
       <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1751,16 +1786,16 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1768,43 +1803,49 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1813,15 +1854,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="94.5">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1830,15 +1873,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="1"/>
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1846,21 +1891,41 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:8" ht="40.5">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="IMU接口" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,209 @@
   </si>
   <si>
     <t>正确返回验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取好友列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendlist</t>
+  </si>
+  <si>
+    <t>registerMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU项目WebSocket消息接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试地址：ws://localhost:8080/imu/message?userId=10001(10001为用户的userId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天消息确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"fromUserId":100002,"messageType":0,"state":0,"toUserId":100001,"SendTimeMillis":1482469800959,"content":"sdf","type":"chat","uid":1482469800959}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:消息类型
+content:消息具体内容（如果不是文字消息，则content为对应的url）
+SendTimeMillis：发送时间
+fromUserId：发送者id
+toUserId：接收者id
+messageType：聊天消息类型（0.文字消息；1.图片消息；2.语音消息；3.小视频；4.文件；11.文字阅后即焚；12.图片阅后即焚；13.语音阅后即焚；14.视频阅后即焚）
+state：发送状态（成功）
+uid：消息UID，用于识别消息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"chat_back","content":"","uid":1482469800959,"SendTimeMillis":1482472432158}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友上线提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友下线提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlineReminder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlineReminder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type:消息类型
+content:消息内容
+SendTimeMillis：对应的时间点
+uid：消息UID，用于识别消息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uid：对应发送的消息uid
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addfriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content：确认信息（agree：表示同意，disagree：表示不同意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addfriend_conform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送/接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送/接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content：好友Account（账号）/申请人账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示申请发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addfriend_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletefriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content：好友Account（账号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletefriend_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示删除成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,7 +414,7 @@
     "age": 0,
     "phone": "",
     "sex": 0,
-    "avatarUrl": "",
+    "avatar": "",
     "signature": "",
     "address": "",
     "RegistrationTimeMillis": 1480921145777,
@@ -355,7 +558,7 @@
     "age": 0,
     "phone": "",
     "sex": 0,
-    "avatarUrl": "",
+    "avatar": "",
     "signature": "",
     "address": "",
     "RegistrationTimeMillis": 1480921145777,
@@ -552,7 +755,7 @@
         "age": 0,
         "phone": "",
         "sex": 0,
-        "avatarUrl": "",
+        "avatar": "",
         "signature": "",
         "address": "",
         "RegistrationTimeMillis": 1479978073096,
@@ -618,206 +821,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getAvatar</t>
+  </si>
+  <si>
+    <t>获取头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取好友列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendlist</t>
-  </si>
-  <si>
-    <t>registerMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU项目WebSocket消息接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试地址：ws://localhost:8080/imu/message?userId=10001(10001为用户的userId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天消息确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"fromUserId":100002,"messageType":0,"state":0,"toUserId":100001,"SendTimeMillis":1482469800959,"content":"sdf","type":"chat","uid":1482469800959}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:消息类型
-content:消息具体内容（如果不是文字消息，则content为对应的url）
-SendTimeMillis：发送时间
-fromUserId：发送者id
-toUserId：接收者id
-messageType：聊天消息类型（0.文字消息；1.图片消息；2.语音消息；3.小视频；4.文件；11.文字阅后即焚；12.图片阅后即焚；13.语音阅后即焚；14.视频阅后即焚）
-state：发送状态（成功）
-uid：消息UID，用于识别消息
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"chat_back","content":"","uid":1482469800959,"SendTimeMillis":1482472432158}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chat_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友上线提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友下线提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onlineReminder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offlineReminder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">type:消息类型
-content:消息内容
-SendTimeMillis：对应的时间点
-uid：消息UID，用于识别消息
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">uid：对应发送的消息uid
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addfriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content：确认信息（agree：表示同意，disagree：表示不同意）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友申请确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addfriend_conform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送/接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送/接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content：好友Account（账号）/申请人账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示发送成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友申请返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示申请发送成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addfriend_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deletefriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content：好友Account（账号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除好友返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deletefriend_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示删除成功</t>
+    <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -970,6 +989,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1292,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1305,28 +1327,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -1365,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1374,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -1391,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1400,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -1437,35 +1459,47 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="21.75" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
@@ -1697,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1711,49 +1745,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="165" customHeight="1">
@@ -1761,19 +1795,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="74.25" customHeight="1">
@@ -1781,25 +1815,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1">
@@ -1807,15 +1841,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
@@ -1823,15 +1857,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54">
@@ -1839,18 +1873,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="94.5">
@@ -1858,18 +1892,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
@@ -1877,18 +1911,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5">
@@ -1896,35 +1930,35 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IMU接口" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,55 +108,6 @@
   </si>
   <si>
     <t>phone="13700000000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.正常返回：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{"code":1,"data":{"codeMsg":"1234"}}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.错误返回：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{"code":2,"data":{"message":"获取验证码失败"}}}
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,10 +263,6 @@
   </si>
   <si>
     <t>发送/接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content：好友Account（账号）/申请人账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -839,12 +786,190 @@
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>QueryUser</t>
+  </si>
+  <si>
+    <t>获取用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=13788888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找关键词（账号/手机号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.正常返回：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{"code":1,"data":{"codeMsg":"1234"}}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.错误返回：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{"code":2,"data":{"message":"获取验证码失败"}}}
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.正常返回：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+  "code": 1,
+  "data": {
+    "userId": 100002,
+    "account": "hhh",
+    "nickname": "henry",
+    "username": "",
+    "password": "123456",
+    "type": 0,
+    "state": 1,
+    "age": 0,
+    "phone": "",
+    "sex": 0,
+    "avatar": "",
+    "signature": "dfgsdfgf",
+    "address": "sdfgsdf",
+    "RegistrationTimeMillis": 1479977809636,
+    "LastAccessTimeMillis": 1479977809636,
+    "friendLastChangedTimeMillis": 0,
+    "Reservedfiled2": ""
+  }
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.用户不存在：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+  "code": 2,
+  "data": {
+    "message": "该用户不存在"
+  }
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.错误参数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+  "code": 3,
+  "data": {
+    "message": "错误参数"
+  }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content：好友ID（账号）/申请人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +1065,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -967,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -989,6 +1122,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1314,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1327,28 +1463,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -1387,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1396,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -1413,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1422,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -1445,13 +1581,13 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="196.5" customHeight="1">
@@ -1459,22 +1595,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -1483,36 +1619,50 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="409.5">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
@@ -1731,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1745,49 +1895,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5">
+      <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="165" customHeight="1">
@@ -1795,19 +1945,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="74.25" customHeight="1">
@@ -1815,25 +1965,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1">
@@ -1841,15 +1991,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
@@ -1857,15 +2007,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54">
@@ -1873,18 +2023,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="94.5">
@@ -1892,18 +2042,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
@@ -1911,18 +2061,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5">
@@ -1930,35 +2080,35 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>IMU项目API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,6 +962,18 @@
   </si>
   <si>
     <t>content：好友ID（账号）/申请人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addfriend_conform_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示申请确认发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友确认返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1122,6 +1134,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1463,28 +1478,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -1879,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1895,24 +1910,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -1970,10 +1985,10 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1996,8 +2011,8 @@
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2012,8 +2027,8 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2028,8 +2043,8 @@
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
@@ -2047,8 +2062,8 @@
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2057,67 +2072,78 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5">
       <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
@@ -2167,12 +2193,20 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="E5:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="11" spans="1:8" ht="40.5">
       <c r="A11" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>91</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="12" spans="1:8" ht="40.5">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>64</v>
